--- a/tut05/output/0501CS21.xlsx
+++ b/tut05/output/0501CS21.xlsx
@@ -26,7 +26,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,13 +34,21 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0077C3FD"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,8 +63,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,6 +438,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -503,6 +515,30 @@
           <t xml:space="preserve">Semester wise credits taken </t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>49</v>
+      </c>
+      <c r="C5" t="n">
+        <v>44</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E5" t="n">
+        <v>47</v>
+      </c>
+      <c r="F5" t="n">
+        <v>42</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40</v>
+      </c>
+      <c r="H5" t="n">
+        <v>41</v>
+      </c>
+      <c r="I5" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -510,6 +546,30 @@
           <t xml:space="preserve">SPI </t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -517,12 +577,60 @@
           <t xml:space="preserve">Total Credits </t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>49</v>
+      </c>
+      <c r="C7" t="n">
+        <v>93</v>
+      </c>
+      <c r="D7" t="n">
+        <v>136</v>
+      </c>
+      <c r="E7" t="n">
+        <v>183</v>
+      </c>
+      <c r="F7" t="n">
+        <v>225</v>
+      </c>
+      <c r="G7" t="n">
+        <v>265</v>
+      </c>
+      <c r="H7" t="n">
+        <v>306</v>
+      </c>
+      <c r="I7" t="n">
+        <v>346</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
           <t>CPI</t>
         </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9.210000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -561,6 +669,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -883,37 +994,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Sl. No</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Subject No</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Subject Name</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>L-T-P</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Credit</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Subject Type</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Grade</t>
         </is>
